--- a/Test Procedure/Symptom Checker/Illness Matrix Barebones .xlsx
+++ b/Test Procedure/Symptom Checker/Illness Matrix Barebones .xlsx
@@ -396,7 +396,7 @@
   <dimension ref="A1:BQ11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R19" sqref="R19"/>
+      <selection activeCell="O20" sqref="O20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -621,7 +621,7 @@
         <v>0</v>
       </c>
       <c r="D2" s="2">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="E2" s="2">
         <v>0</v>
@@ -636,7 +636,7 @@
         <v>0</v>
       </c>
       <c r="I2" s="2">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="J2" s="2">
         <v>0</v>
@@ -648,7 +648,7 @@
         <v>0</v>
       </c>
       <c r="M2" s="2">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="N2" s="2">
         <v>0</v>
@@ -693,10 +693,10 @@
         <v>0</v>
       </c>
       <c r="AB2" s="2">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="AC2" s="2">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="AD2" s="2">
         <v>0</v>
@@ -705,7 +705,7 @@
         <v>0</v>
       </c>
       <c r="AF2" s="2">
-        <v>1</v>
+        <v>33.333333333333336</v>
       </c>
       <c r="AG2" s="2">
         <v>0</v>
@@ -714,7 +714,7 @@
         <v>0</v>
       </c>
       <c r="AI2" s="2">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="AJ2" s="2">
         <v>0</v>
@@ -747,7 +747,7 @@
         <v>0</v>
       </c>
       <c r="AT2" s="2">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="AU2" s="2">
         <v>0</v>
@@ -786,7 +786,7 @@
         <v>0</v>
       </c>
       <c r="BG2" s="2">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="BH2" s="2">
         <v>0</v>
@@ -816,7 +816,7 @@
         <v>0</v>
       </c>
       <c r="BQ2" s="2">
-        <v>1</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3" spans="1:69" x14ac:dyDescent="0.2">
@@ -824,13 +824,13 @@
         <v>0</v>
       </c>
       <c r="B3" s="3">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="C3" s="2">
-        <v>1</v>
+        <v>33.333333333333336</v>
       </c>
       <c r="D3" s="2">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="E3" s="2">
         <v>0</v>
@@ -839,7 +839,7 @@
         <v>0</v>
       </c>
       <c r="G3" s="2">
-        <v>1</v>
+        <v>16.666666666666668</v>
       </c>
       <c r="H3" s="2">
         <v>0</v>
@@ -884,7 +884,7 @@
         <v>0</v>
       </c>
       <c r="V3" s="2">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="W3" s="2">
         <v>0</v>
@@ -893,7 +893,7 @@
         <v>0</v>
       </c>
       <c r="Y3" s="2">
-        <v>1</v>
+        <v>33.333333333333336</v>
       </c>
       <c r="Z3" s="2">
         <v>0</v>
@@ -914,7 +914,7 @@
         <v>0</v>
       </c>
       <c r="AF3" s="2">
-        <v>1</v>
+        <v>33.333333333333336</v>
       </c>
       <c r="AG3" s="2">
         <v>0</v>
@@ -956,7 +956,7 @@
         <v>0</v>
       </c>
       <c r="AT3" s="2">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="AU3" s="2">
         <v>0</v>
@@ -965,7 +965,7 @@
         <v>0</v>
       </c>
       <c r="AW3" s="2">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="AX3" s="2">
         <v>0</v>
@@ -986,7 +986,7 @@
         <v>0</v>
       </c>
       <c r="BD3" s="2">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="BE3" s="2">
         <v>0</v>
@@ -1016,7 +1016,7 @@
         <v>0</v>
       </c>
       <c r="BN3" s="2">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="BO3" s="2">
         <v>0</v>
@@ -1048,7 +1048,7 @@
         <v>0</v>
       </c>
       <c r="G4" s="2">
-        <v>1</v>
+        <v>16.666666666666668</v>
       </c>
       <c r="H4" s="2">
         <v>0</v>
@@ -1117,7 +1117,7 @@
         <v>0</v>
       </c>
       <c r="AD4" s="2">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="AE4" s="2">
         <v>0</v>
@@ -1171,16 +1171,16 @@
         <v>0</v>
       </c>
       <c r="AV4" s="2">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="AW4" s="2">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="AX4" s="2">
         <v>0</v>
       </c>
       <c r="AY4" s="2">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="AZ4" s="2">
         <v>0</v>
@@ -1260,7 +1260,7 @@
         <v>0</v>
       </c>
       <c r="H5" s="2">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="I5" s="2">
         <v>0</v>
@@ -1305,10 +1305,10 @@
         <v>0</v>
       </c>
       <c r="W5" s="2">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="X5" s="2">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="Y5" s="2">
         <v>0</v>
@@ -1338,16 +1338,16 @@
         <v>0</v>
       </c>
       <c r="AH5" s="2">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="AI5" s="2">
         <v>0</v>
       </c>
       <c r="AJ5" s="2">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="AK5" s="2">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="AL5" s="2">
         <v>0</v>
@@ -1365,7 +1365,7 @@
         <v>0</v>
       </c>
       <c r="AQ5" s="2">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="AR5" s="2">
         <v>0</v>
@@ -1395,7 +1395,7 @@
         <v>0</v>
       </c>
       <c r="BA5" s="2">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="BB5" s="2">
         <v>0</v>
@@ -1457,13 +1457,13 @@
         <v>0</v>
       </c>
       <c r="D6" s="2">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="E6" s="2">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="F6" s="2">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="G6" s="2">
         <v>0</v>
@@ -1508,13 +1508,13 @@
         <v>0</v>
       </c>
       <c r="U6" s="2">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="V6" s="2">
         <v>0</v>
       </c>
       <c r="W6" s="2">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="X6" s="2">
         <v>0</v>
@@ -1637,7 +1637,7 @@
         <v>0</v>
       </c>
       <c r="BL6" s="2">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="BM6" s="2">
         <v>0</v>
@@ -1657,7 +1657,7 @@
     </row>
     <row r="7" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="B7" s="3">
         <v>0</v>
@@ -1675,7 +1675,7 @@
         <v>0</v>
       </c>
       <c r="G7" s="2">
-        <v>1</v>
+        <v>16.666666666666668</v>
       </c>
       <c r="H7" s="2">
         <v>0</v>
@@ -1696,13 +1696,13 @@
         <v>0</v>
       </c>
       <c r="N7" s="2">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="O7" s="2">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="P7" s="2">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="Q7" s="2">
         <v>0</v>
@@ -1750,7 +1750,7 @@
         <v>0</v>
       </c>
       <c r="AF7" s="2">
-        <v>1</v>
+        <v>33.333333333333336</v>
       </c>
       <c r="AG7" s="2">
         <v>0</v>
@@ -1771,7 +1771,7 @@
         <v>0</v>
       </c>
       <c r="AM7" s="2">
-        <v>1</v>
+        <v>33.333333333333336</v>
       </c>
       <c r="AN7" s="2">
         <v>0</v>
@@ -1855,7 +1855,7 @@
         <v>0</v>
       </c>
       <c r="BO7" s="2">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="BP7" s="2">
         <v>0</v>
@@ -1872,7 +1872,7 @@
         <v>0</v>
       </c>
       <c r="C8" s="2">
-        <v>1</v>
+        <v>33.333333333333336</v>
       </c>
       <c r="D8" s="2">
         <v>0</v>
@@ -1884,7 +1884,7 @@
         <v>0</v>
       </c>
       <c r="G8" s="2">
-        <v>1</v>
+        <v>16.666666666666668</v>
       </c>
       <c r="H8" s="2">
         <v>0</v>
@@ -1899,7 +1899,7 @@
         <v>0</v>
       </c>
       <c r="L8" s="2">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="M8" s="2">
         <v>0</v>
@@ -1920,7 +1920,7 @@
         <v>0</v>
       </c>
       <c r="S8" s="2">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="T8" s="2">
         <v>0</v>
@@ -1980,7 +1980,7 @@
         <v>0</v>
       </c>
       <c r="AM8" s="2">
-        <v>1</v>
+        <v>33.333333333333336</v>
       </c>
       <c r="AN8" s="2">
         <v>0</v>
@@ -2034,31 +2034,31 @@
         <v>0</v>
       </c>
       <c r="BE8" s="2">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="BF8" s="2">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="BG8" s="2">
         <v>0</v>
       </c>
       <c r="BH8" s="2">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="BI8" s="2">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="BJ8" s="2">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="BK8" s="2">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="BL8" s="2">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="BM8" s="2">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="BN8" s="2">
         <v>0</v>
@@ -2067,7 +2067,7 @@
         <v>0</v>
       </c>
       <c r="BP8" s="2">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="BQ8" s="2">
         <v>0</v>
@@ -2084,7 +2084,7 @@
         <v>0</v>
       </c>
       <c r="D9" s="2">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="E9" s="2">
         <v>0</v>
@@ -2093,7 +2093,7 @@
         <v>0</v>
       </c>
       <c r="G9" s="2">
-        <v>1</v>
+        <v>16.666666666666668</v>
       </c>
       <c r="H9" s="2">
         <v>0</v>
@@ -2105,7 +2105,7 @@
         <v>0</v>
       </c>
       <c r="K9" s="2">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="L9" s="2">
         <v>0</v>
@@ -2123,16 +2123,16 @@
         <v>0</v>
       </c>
       <c r="Q9" s="2">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="R9" s="4">
         <v>0</v>
       </c>
       <c r="S9" s="2">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="T9" s="2">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="U9" s="2">
         <v>0</v>
@@ -2156,10 +2156,10 @@
         <v>0</v>
       </c>
       <c r="AB9" s="2">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="AC9" s="2">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="AD9" s="2">
         <v>0</v>
@@ -2183,19 +2183,19 @@
         <v>0</v>
       </c>
       <c r="AK9" s="2">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="AL9" s="2">
         <v>0</v>
       </c>
       <c r="AM9" s="2">
-        <v>1</v>
+        <v>33.333333333333336</v>
       </c>
       <c r="AN9" s="2">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="AO9" s="2">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="AP9" s="2">
         <v>0</v>
@@ -2222,7 +2222,7 @@
         <v>0</v>
       </c>
       <c r="AX9" s="2">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="AY9" s="2">
         <v>0</v>
@@ -2234,10 +2234,10 @@
         <v>0</v>
       </c>
       <c r="BB9" s="2">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="BC9" s="2">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="BD9" s="2">
         <v>0</v>
@@ -2356,13 +2356,13 @@
         <v>0</v>
       </c>
       <c r="Y10" s="2">
-        <v>1</v>
+        <v>33.333333333333336</v>
       </c>
       <c r="Z10" s="2">
         <v>0</v>
       </c>
       <c r="AA10" s="2">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="AB10" s="2">
         <v>0</v>
@@ -2374,13 +2374,13 @@
         <v>0</v>
       </c>
       <c r="AE10" s="2">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="AF10" s="2">
         <v>0</v>
       </c>
       <c r="AG10" s="2">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="AH10" s="2">
         <v>0</v>
@@ -2389,13 +2389,13 @@
         <v>0</v>
       </c>
       <c r="AJ10" s="2">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="AK10" s="2">
         <v>0</v>
       </c>
       <c r="AL10" s="2">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="AM10" s="2">
         <v>0</v>
@@ -2413,16 +2413,16 @@
         <v>0</v>
       </c>
       <c r="AR10" s="2">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="AS10" s="2">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="AT10" s="2">
         <v>0</v>
       </c>
       <c r="AU10" s="2">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="AV10" s="2">
         <v>0</v>
@@ -2437,7 +2437,7 @@
         <v>0</v>
       </c>
       <c r="AZ10" s="2">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="BA10" s="2">
         <v>0</v>
@@ -2499,10 +2499,10 @@
         <v>0</v>
       </c>
       <c r="C11" s="2">
-        <v>1</v>
+        <v>33.333333333333336</v>
       </c>
       <c r="D11" s="2">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="E11" s="2">
         <v>0</v>
@@ -2511,7 +2511,7 @@
         <v>0</v>
       </c>
       <c r="G11" s="2">
-        <v>1</v>
+        <v>16.666666666666668</v>
       </c>
       <c r="H11" s="2">
         <v>0</v>
@@ -2520,7 +2520,7 @@
         <v>0</v>
       </c>
       <c r="J11" s="2">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="K11" s="2">
         <v>0</v>
@@ -2553,7 +2553,7 @@
         <v>0</v>
       </c>
       <c r="U11" s="2">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="V11" s="2">
         <v>0</v>
@@ -2565,10 +2565,10 @@
         <v>0</v>
       </c>
       <c r="Y11" s="2">
-        <v>1</v>
+        <v>33.333333333333336</v>
       </c>
       <c r="Z11" s="2">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="AA11" s="2">
         <v>0</v>
@@ -2616,7 +2616,7 @@
         <v>0</v>
       </c>
       <c r="AP11" s="2">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="AQ11" s="2">
         <v>0</v>
@@ -2688,10 +2688,10 @@
         <v>0</v>
       </c>
       <c r="BN11" s="2">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="BO11" s="2">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="BP11" s="2">
         <v>0</v>
